--- a/output/fit_clients/fit_round_402.xlsx
+++ b/output/fit_clients/fit_round_402.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2383278601.621695</v>
+        <v>1631866767.727953</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07654428028644986</v>
+        <v>0.1129813677516855</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03663568874842308</v>
+        <v>0.0447611875096175</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1191639348.044656</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2489917247.679708</v>
+        <v>2110974578.590805</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1770413309829109</v>
+        <v>0.1822495002999258</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03485395229561538</v>
+        <v>0.03514421324820408</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1244958739.785599</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4251021748.91779</v>
+        <v>3893947262.769215</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1315291772213369</v>
+        <v>0.1438021572138996</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03450477141462716</v>
+        <v>0.03467696025887165</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>145</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2125510906.448225</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3132275189.529503</v>
+        <v>2788071414.143525</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1045548896236884</v>
+        <v>0.09895018699526302</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04245597460082854</v>
+        <v>0.03446234605750208</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>150</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1566137655.901008</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1988799876.964351</v>
+        <v>2343391930.395704</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1125884913104353</v>
+        <v>0.1319663901197737</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05410544553244469</v>
+        <v>0.03613845739069175</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>73</v>
-      </c>
-      <c r="J6" t="n">
-        <v>994399969.3011754</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1954361113.368281</v>
+        <v>2814502330.705755</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06592135449980424</v>
+        <v>0.07614352491231931</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04645321092618231</v>
+        <v>0.04203598125908824</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>126</v>
-      </c>
-      <c r="J7" t="n">
-        <v>977180622.3020592</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3929568634.110331</v>
+        <v>3172346822.617455</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1615715368261088</v>
+        <v>0.1568572168656985</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02143843398264982</v>
+        <v>0.02452674950923587</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>128</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1964784469.614277</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2066789320.445946</v>
+        <v>2260714070.745219</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1792301488276685</v>
+        <v>0.1490187415468704</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02765977565578265</v>
+        <v>0.0282174607438038</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1033394677.585731</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3764714562.035327</v>
+        <v>4289756991.825684</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2067283532637992</v>
+        <v>0.1626471003959143</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03333503181708383</v>
+        <v>0.03656587623163237</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>169</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1882357284.735871</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2839035275.858377</v>
+        <v>3914079484.821277</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1412004648112044</v>
+        <v>0.1296511534962791</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03124603185801034</v>
+        <v>0.04903671565698499</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>166</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1419517569.636177</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3154905651.966358</v>
+        <v>3187335735.962602</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1228814048303493</v>
+        <v>0.1374662504767591</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05265110272270616</v>
+        <v>0.04365579253904153</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>136</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1577452858.207282</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3873383209.052605</v>
+        <v>3612851364.242023</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0966354011501214</v>
+        <v>0.07643667394674114</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02294374908902782</v>
+        <v>0.02572638381004973</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>135</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1936691665.901892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2639333242.537338</v>
+        <v>3779966710.107563</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1542240878317649</v>
+        <v>0.1298253974350771</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0298538187995826</v>
+        <v>0.04400532982762013</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>129</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1319666681.841835</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1686657629.961866</v>
+        <v>1553203078.656245</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09185630050361641</v>
+        <v>0.08879556431678055</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03513990960365902</v>
+        <v>0.03046018861988826</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>843328942.8273406</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2115089860.135926</v>
+        <v>2320617783.528207</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09535558583000814</v>
+        <v>0.07063390246318244</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04413411808411411</v>
+        <v>0.03544397278988925</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>82</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1057544995.298687</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3925507647.142623</v>
+        <v>5053063331.755276</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1062565117716673</v>
+        <v>0.1383195103439934</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03551389061288403</v>
+        <v>0.03252328118382846</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>117</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1962753861.885527</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3177890635.127293</v>
+        <v>2483965713.756039</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1545357017371349</v>
+        <v>0.1230464192696608</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03339340004733453</v>
+        <v>0.0273059136210567</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>131</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1588945334.9179</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>911880671.9439386</v>
+        <v>1252181609.293557</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1661567084022735</v>
+        <v>0.1765295673214849</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02155827122012964</v>
+        <v>0.02147018279692662</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>455940343.7813557</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2759147236.069492</v>
+        <v>1744667097.625707</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1091925777541614</v>
+        <v>0.1488106121726509</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02975070211863736</v>
+        <v>0.02594687637542166</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>52</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1379573563.5317</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2297247663.736021</v>
+        <v>2117410718.824811</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09349656927796424</v>
+        <v>0.06459554349431233</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02975659814607251</v>
+        <v>0.02923477969276932</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>33</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1148623839.413056</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3764744425.933764</v>
+        <v>3960206293.583311</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1187514974751327</v>
+        <v>0.1017042043801243</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04490772778273827</v>
+        <v>0.03841662773393609</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>111</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1882372228.719893</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1230629695.612417</v>
+        <v>1225109260.887925</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1415370942827355</v>
+        <v>0.1345285658694197</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03809645616944008</v>
+        <v>0.03737291744000451</v>
       </c>
       <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>615314879.1655869</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3210482724.044064</v>
+        <v>3906080748.483605</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1009092782015024</v>
+        <v>0.1406011641577502</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0260026768526822</v>
+        <v>0.02573132941556682</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>117</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1605241383.122963</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1444542274.206498</v>
+        <v>1406745704.593937</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1091654394952376</v>
+        <v>0.10467964891986</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02591434821161173</v>
+        <v>0.02522967816696062</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>722271098.8168381</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1399293117.647464</v>
+        <v>1368784021.879442</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08407304269047451</v>
+        <v>0.09341371661824584</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03269662261346483</v>
+        <v>0.02768942978145409</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>699646628.6188372</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4002265338.671448</v>
+        <v>3034047002.646945</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1278842589665884</v>
+        <v>0.1443258817137487</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0235687837451952</v>
+        <v>0.02116687594559619</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>102</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2001132679.377084</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3721308467.87264</v>
+        <v>3403773067.856841</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09995672945271634</v>
+        <v>0.1272205936295024</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04769187146823659</v>
+        <v>0.03819034983861169</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>132</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1860654307.792907</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5817821829.7716</v>
+        <v>5435678376.965155</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1356161105164628</v>
+        <v>0.1223954664664238</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03611493659710036</v>
+        <v>0.03524231554309388</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>177</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2908910805.800511</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2322143901.417258</v>
+        <v>1596299022.893495</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08876372703374037</v>
+        <v>0.1141219263782371</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02721502494848145</v>
+        <v>0.04009550036694471</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1161072024.847936</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1302303660.075184</v>
+        <v>1438285889.706614</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09737818655920123</v>
+        <v>0.08024624795034323</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04940015995853778</v>
+        <v>0.0476056480102638</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>651151757.425758</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1290604476.066663</v>
+        <v>1476291580.064656</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09969028909472517</v>
+        <v>0.1107038942141165</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02983535724276224</v>
+        <v>0.02596253580687734</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>645302263.0353976</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2419583816.589449</v>
+        <v>2283562030.741765</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1463816924000519</v>
+        <v>0.1395363383129849</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05477204601949384</v>
+        <v>0.0496986799505268</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>119</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1209791953.367878</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1473512470.134166</v>
+        <v>1179953959.786622</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1057768930212816</v>
+        <v>0.09907222785790201</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02075775061411683</v>
+        <v>0.01809124743205962</v>
       </c>
       <c r="H34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>736756195.3271432</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>906985167.9511895</v>
+        <v>884406618.0847979</v>
       </c>
       <c r="F35" t="n">
-        <v>0.118419845149348</v>
+        <v>0.0978624730020356</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02830320376610775</v>
+        <v>0.04309844156522808</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>453492622.9555238</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2789620702.047978</v>
+        <v>2356953732.677356</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1596704871769377</v>
+        <v>0.1660785811227582</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02597477844439445</v>
+        <v>0.02165431476175132</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>101</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1394810349.825886</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2140953949.400031</v>
+        <v>1841050147.165306</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09552602964165777</v>
+        <v>0.09660067849540602</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03917241589851974</v>
+        <v>0.02742429367038161</v>
       </c>
       <c r="H37" t="b">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>108</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1070477021.370188</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1538702815.275357</v>
+        <v>1477462044.076359</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1226075522495458</v>
+        <v>0.1084797880095222</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02435880962425903</v>
+        <v>0.02854702558305245</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>769351451.4409518</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1984203964.979115</v>
+        <v>1717727411.972202</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1763811771274523</v>
+        <v>0.1235710262804822</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0249020075247798</v>
+        <v>0.02674020178473659</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>992101979.4252588</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1452608252.783861</v>
+        <v>1557420270.957257</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1010590573404984</v>
+        <v>0.1497656691457457</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04005379932908328</v>
+        <v>0.03863886715135575</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>726304104.4728887</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2836856992.188724</v>
+        <v>2412508499.985187</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1602908029724716</v>
+        <v>0.1601363690621673</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03148846264512219</v>
+        <v>0.03915950223912112</v>
       </c>
       <c r="H41" t="b">
         <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>102</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1418428488.390579</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3651710779.427788</v>
+        <v>2644984896.733592</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0942432891759294</v>
+        <v>0.1190872749477962</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03012820363284043</v>
+        <v>0.0449501755110417</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>135</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1825855395.031006</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2865589480.509491</v>
+        <v>2472464915.612736</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1720361896210988</v>
+        <v>0.1392035196546628</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02115313140131156</v>
+        <v>0.02102774049559754</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>140</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1432794752.176543</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2232157264.165482</v>
+        <v>2052128198.519785</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09561407418090338</v>
+        <v>0.08331440664552714</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02986751925710995</v>
+        <v>0.0344355658839041</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1116078784.742521</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2524840444.423731</v>
+        <v>1597635525.050951</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1467364549736059</v>
+        <v>0.1601992135677111</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05099315078925833</v>
+        <v>0.03779150864753324</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1262420265.996512</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3813030042.965552</v>
+        <v>5134778478.129845</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1565938037232224</v>
+        <v>0.1378356862334205</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04014054476955046</v>
+        <v>0.0585252063310342</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>143</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1906514980.364878</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3209050271.640041</v>
+        <v>4724113477.031404</v>
       </c>
       <c r="F47" t="n">
-        <v>0.2024246747154566</v>
+        <v>0.1488991555560314</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04123562626690021</v>
+        <v>0.04619499761307055</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>109</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1604525090.162534</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3000347991.773209</v>
+        <v>3800771367.078966</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09165483961348352</v>
+        <v>0.09950464762664048</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03548596608699717</v>
+        <v>0.03271170366900636</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>132</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1500174088.402537</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1262211894.448252</v>
+        <v>1829101730.56908</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1909187197965731</v>
+        <v>0.1403671077512452</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03269891598774793</v>
+        <v>0.03191130872832698</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>631106016.2396222</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3228836063.065405</v>
+        <v>3782952928.371516</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1767379024316568</v>
+        <v>0.1161680165575912</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04529009392694221</v>
+        <v>0.03697674718031939</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>138</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1614418075.083596</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>974994228.7417393</v>
+        <v>1513862024.884891</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1504437674810802</v>
+        <v>0.1211752928327317</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03853874235470602</v>
+        <v>0.05411885245634964</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>487497202.3945594</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3996102915.96694</v>
+        <v>4562428189.422611</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1279768475197697</v>
+        <v>0.1352981633378336</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05044470820308247</v>
+        <v>0.05067207281453746</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>165</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1998051514.709571</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2418903851.873953</v>
+        <v>3246973621.719514</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1531428112428104</v>
+        <v>0.1839626677736818</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02633484523467894</v>
+        <v>0.03165820016592816</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>117</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1209451998.539598</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4363160967.519814</v>
+        <v>4062124886.043468</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1129530368172711</v>
+        <v>0.1385371920327377</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0418483360238581</v>
+        <v>0.05076438375056026</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>130</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2181580576.379615</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4454271196.813951</v>
+        <v>4793908386.078656</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1699460086601173</v>
+        <v>0.1996985139744201</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0248062206320985</v>
+        <v>0.02140503765791559</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>114</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2227135593.379116</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1411598275.817094</v>
+        <v>1644089997.224564</v>
       </c>
       <c r="F56" t="n">
-        <v>0.09930332244330994</v>
+        <v>0.101095767398583</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05751468074663143</v>
+        <v>0.04025059830124957</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>705799193.2519727</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3041535727.859807</v>
+        <v>4183382639.829592</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1614077649915468</v>
+        <v>0.1135744511769279</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01975522627072462</v>
+        <v>0.02336380319814285</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>127</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1520767871.836947</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1267776346.949723</v>
+        <v>1205935906.112669</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1414646113658775</v>
+        <v>0.1432472273324683</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0332521804573499</v>
+        <v>0.03673200928958673</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>633888225.8118318</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4656093712.498153</v>
+        <v>5387106165.489634</v>
       </c>
       <c r="F59" t="n">
-        <v>0.12107435794446</v>
+        <v>0.09670139056482205</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04962729535811326</v>
+        <v>0.03883628994115855</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>109</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2328046800.571688</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3730423409.616037</v>
+        <v>2873836004.880235</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1481924067834765</v>
+        <v>0.1375601412069045</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02754893033311779</v>
+        <v>0.02845512793669576</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>124</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1865211851.789398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2702353174.189211</v>
+        <v>2830002317.303252</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1730272173110445</v>
+        <v>0.1577142558958398</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0224743585779776</v>
+        <v>0.0324187683487703</v>
       </c>
       <c r="H61" t="b">
         <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>138</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1351176595.645648</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2060965963.688464</v>
+        <v>2122947753.109022</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1494744198387617</v>
+        <v>0.1667736614495194</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04059173961981685</v>
+        <v>0.04596246103061458</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>1030483049.083776</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4118496044.21247</v>
+        <v>4607378042.165717</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08127372689329901</v>
+        <v>0.06566665239709182</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03243870064243726</v>
+        <v>0.03319960123789156</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>118</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2059248079.198604</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4665197825.36071</v>
+        <v>5161396996.392191</v>
       </c>
       <c r="F64" t="n">
-        <v>0.129607017140003</v>
+        <v>0.1688686395637624</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03333203246914608</v>
+        <v>0.02401442187693007</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>125</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2332598995.347447</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4263625068.263681</v>
+        <v>5552926280.8023</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1235582897918982</v>
+        <v>0.1413790101036708</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02051917533597857</v>
+        <v>0.0272207559627535</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>144</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2131812537.007973</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4200927477.927372</v>
+        <v>3700381137.550354</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1042903149971809</v>
+        <v>0.1341728022470431</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04591028374473078</v>
+        <v>0.04863777095050487</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>119</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2100463723.298118</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2636500485.994015</v>
+        <v>3352196693.621368</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0743426024591005</v>
+        <v>0.09075968540129296</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03611667367496727</v>
+        <v>0.03918482126311659</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>129</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1318250292.073869</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3890958034.026605</v>
+        <v>4316261094.22179</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1300898852856381</v>
+        <v>0.1127071695573267</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0370687235654417</v>
+        <v>0.03986701106297939</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>129</v>
-      </c>
-      <c r="J68" t="n">
-        <v>1945479006.201037</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2013931719.607574</v>
+        <v>2355072351.654563</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1741762898815613</v>
+        <v>0.1475852664599054</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05144265385862051</v>
+        <v>0.05128899808564098</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1006965866.574321</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2537668893.217012</v>
+        <v>2860481439.733682</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1000407458485986</v>
+        <v>0.07272749677081976</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04332535258710955</v>
+        <v>0.0332288938274801</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>115</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1268834393.483865</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3790067577.554584</v>
+        <v>3593548328.694216</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1795662168168891</v>
+        <v>0.1349868490444733</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02877196177890103</v>
+        <v>0.02666561464951803</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>146</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1895033804.146623</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1914194877.484315</v>
+        <v>1852075066.838589</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07516437327294173</v>
+        <v>0.09866121507460476</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04372182626440065</v>
+        <v>0.03508263424790946</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>957097398.9577789</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2674672071.054162</v>
+        <v>2615024797.634717</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09711148511661946</v>
+        <v>0.1078713509027666</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03613773740929316</v>
+        <v>0.05112965212719735</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>153</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1337336061.313595</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3019354072.429936</v>
+        <v>3754406472.017629</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1229212527668415</v>
+        <v>0.1799996339849168</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02212931549888586</v>
+        <v>0.0353341823205417</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>136</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1509677099.952291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2432042513.271261</v>
+        <v>2262815039.82929</v>
       </c>
       <c r="F75" t="n">
-        <v>0.116601216404948</v>
+        <v>0.1293071117151177</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03589695692965869</v>
+        <v>0.02587357789756922</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1216021180.333516</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5010094625.682696</v>
+        <v>4095479819.178373</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1146485211490375</v>
+        <v>0.1029502466830226</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02520281200090553</v>
+        <v>0.02248523096030555</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>90</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2505047339.899776</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1712269015.3476</v>
+        <v>1598109920.881364</v>
       </c>
       <c r="F77" t="n">
-        <v>0.178621256902027</v>
+        <v>0.1630745451168781</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0293665818786642</v>
+        <v>0.02280165136559898</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>856134526.751662</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>2935435449.084813</v>
+        <v>3796772549.121473</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1057418228369611</v>
+        <v>0.1206060671790493</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04668118010101017</v>
+        <v>0.03710186493380455</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>139</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1467717766.481376</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1624688798.058671</v>
+        <v>1545875157.107915</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1752374376030764</v>
+        <v>0.1178046539065558</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03948032321631196</v>
+        <v>0.02830593767072537</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>812344455.0599052</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5460217523.800937</v>
+        <v>4005288210.261663</v>
       </c>
       <c r="F80" t="n">
-        <v>0.06909875182279472</v>
+        <v>0.1052495024299129</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0252102152857179</v>
+        <v>0.03780995436140041</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>85</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2730108833.999681</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5136622538.084675</v>
+        <v>4962265484.569162</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09284836670851764</v>
+        <v>0.1065682020493122</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02826351893010868</v>
+        <v>0.031364968201699</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>89</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2568311274.475938</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4877735396.894443</v>
+        <v>3987502605.596235</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2047993221307286</v>
+        <v>0.1665819678415394</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0287414605386124</v>
+        <v>0.02333484115653034</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>141</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2438867689.234998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2229873236.057929</v>
+        <v>1524719053.638729</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1171225544574912</v>
+        <v>0.1260987929956932</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03678621598413128</v>
+        <v>0.04393719741024645</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1114936631.993282</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1688932227.209467</v>
+        <v>2171839524.000165</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1169912605707696</v>
+        <v>0.09689529878095114</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03871299641273618</v>
+        <v>0.04359001545749371</v>
       </c>
       <c r="H84" t="b">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>5</v>
-      </c>
-      <c r="J84" t="n">
-        <v>844466164.1533561</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2983824145.075703</v>
+        <v>2863312216.498371</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1707649748653563</v>
+        <v>0.1765020717873602</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03929701375324535</v>
+        <v>0.04687066385918751</v>
       </c>
       <c r="H85" t="b">
         <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>151</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1491912130.906047</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2366236202.718346</v>
+        <v>2573009784.868105</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1140773349664855</v>
+        <v>0.1185090113245108</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01986603057796294</v>
+        <v>0.02561053798584368</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>54</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1183118179.933627</v>
       </c>
     </row>
     <row r="87">
@@ -3386,22 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>952670271.3526601</v>
+        <v>1420464384.428483</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1670748081496627</v>
+        <v>0.1704811374011902</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03542372605412437</v>
+        <v>0.03371095379604343</v>
       </c>
       <c r="H87" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>476335127.8837066</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2509710078.03642</v>
+        <v>2769779835.89427</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1426861754517564</v>
+        <v>0.1634018280904357</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0276663050963755</v>
+        <v>0.03883235352434362</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>158</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1254855021.025651</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3157416022.912563</v>
+        <v>2401173059.740875</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1332148629615573</v>
+        <v>0.1087310450115453</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04143610046476461</v>
+        <v>0.0295274756152141</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>135</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1578708038.034852</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1693579496.733122</v>
+        <v>1679669748.144504</v>
       </c>
       <c r="F90" t="n">
-        <v>0.107442453945224</v>
+        <v>0.09027490545554609</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03608271447818859</v>
+        <v>0.05134786398850905</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>846789762.5745255</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1304887492.068581</v>
+        <v>2004520670.566733</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1461991201086636</v>
+        <v>0.1206715347214336</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05362010999057942</v>
+        <v>0.04950828675836987</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>652443810.9753807</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1818452599.928002</v>
+        <v>2003252269.530221</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06973315844201453</v>
+        <v>0.07415077999135809</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0341812941506807</v>
+        <v>0.04042555916937251</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>114</v>
-      </c>
-      <c r="J92" t="n">
-        <v>909226232.4835762</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4918217048.110378</v>
+        <v>3317658507.470642</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1235203004107693</v>
+        <v>0.1196820324605374</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04876367159116074</v>
+        <v>0.04209566349468142</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>122</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2459108465.321197</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1840191178.14</v>
+        <v>2316775452.915912</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1161908583648592</v>
+        <v>0.139939384729123</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0326504318867543</v>
+        <v>0.04196014447019884</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>2</v>
-      </c>
-      <c r="J94" t="n">
-        <v>920095566.6448065</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3223679803.311136</v>
+        <v>1998207658.176056</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1158456922120447</v>
+        <v>0.1181363725412888</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03671115904588431</v>
+        <v>0.03486228645807581</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>97</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1611839885.16786</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1992203634.947629</v>
+        <v>2101414390.311036</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08787462057360425</v>
+        <v>0.1171579012949137</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03405050484198981</v>
+        <v>0.03057059876236625</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>996101805.3170904</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3972424167.775243</v>
+        <v>5262470790.308475</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1235050928593908</v>
+        <v>0.1077706325977497</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01915304561055587</v>
+        <v>0.02576216127740565</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>128</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1986212138.064636</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2988047492.368608</v>
+        <v>2433525049.897493</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09190209081947379</v>
+        <v>0.09492396376141658</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02108913303643413</v>
+        <v>0.02575955888662663</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>110</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1494023730.065872</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2294798903.017572</v>
+        <v>2333181718.573989</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1148348056597812</v>
+        <v>0.1149568826671847</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02636272925510209</v>
+        <v>0.03409668177573105</v>
       </c>
       <c r="H99" t="b">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>126</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1147399386.354459</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4121741174.489467</v>
+        <v>2973423369.014691</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1278634184503781</v>
+        <v>0.1174991276243205</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02229617735143963</v>
+        <v>0.026508214329496</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>124</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2060870667.656904</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3382223154.558441</v>
+        <v>2225926296.669415</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2089806300508464</v>
+        <v>0.1701424818555174</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05574645929321325</v>
+        <v>0.04504134090191533</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>163</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1691111716.837051</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_402.xlsx
+++ b/output/fit_clients/fit_round_402.xlsx
@@ -486,13 +486,13 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1631866767.727953</v>
+        <v>2399834737.824742</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1129813677516855</v>
+        <v>0.0943606785390303</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0447611875096175</v>
+        <v>0.02839473555825463</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -514,16 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2110974578.590805</v>
+        <v>2239336215.178064</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1822495002999258</v>
+        <v>0.1523984878250371</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03514421324820408</v>
+        <v>0.0310151713986833</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3893947262.769215</v>
+        <v>3575617078.376878</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1438021572138996</v>
+        <v>0.1207780443390029</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03467696025887165</v>
+        <v>0.02834677503609338</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,22 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2788071414.143525</v>
+        <v>2858520020.520243</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09895018699526302</v>
+        <v>0.10948154018761</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03446234605750208</v>
+        <v>0.03482269882041673</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2343391930.395704</v>
+        <v>2554138146.504291</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1319663901197737</v>
+        <v>0.1241440570236233</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03613845739069175</v>
+        <v>0.03782983166385748</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2814502330.705755</v>
+        <v>2005587336.927674</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07614352491231931</v>
+        <v>0.06368786885151645</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04203598125908824</v>
+        <v>0.0384871340383436</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3172346822.617455</v>
+        <v>3106880734.137624</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1568572168656985</v>
+        <v>0.199184981517724</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02452674950923587</v>
+        <v>0.03325191717211266</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -682,13 +682,13 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2260714070.745219</v>
+        <v>1564146969.488099</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1490187415468704</v>
+        <v>0.1489714884456601</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0282174607438038</v>
+        <v>0.03499582357710823</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4289756991.825684</v>
+        <v>5918924517.995546</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1626471003959143</v>
+        <v>0.1751498480966613</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03656587623163237</v>
+        <v>0.04615920746028772</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -738,13 +738,13 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3914079484.821277</v>
+        <v>3011381530.079731</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1296511534962791</v>
+        <v>0.175650656179097</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04903671565698499</v>
+        <v>0.04262795339262802</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -766,13 +766,13 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3187335735.962602</v>
+        <v>2321382184.273174</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1374662504767591</v>
+        <v>0.1653394203508363</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04365579253904153</v>
+        <v>0.04191326400734357</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -794,16 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3612851364.242023</v>
+        <v>3391129330.170617</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07643667394674114</v>
+        <v>0.1009505904484027</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02572638381004973</v>
+        <v>0.02831543689989438</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3779966710.107563</v>
+        <v>3111619873.068214</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1298253974350771</v>
+        <v>0.1666226736699907</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04400532982762013</v>
+        <v>0.0385466880291488</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1553203078.656245</v>
+        <v>1716182028.121221</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08879556431678055</v>
+        <v>0.06650351503822557</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03046018861988826</v>
+        <v>0.03192023263255932</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2320617783.528207</v>
+        <v>1766781459.33567</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07063390246318244</v>
+        <v>0.1090567401003098</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03544397278988925</v>
+        <v>0.05185661590069465</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5053063331.755276</v>
+        <v>3367867951.408164</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1383195103439934</v>
+        <v>0.1168254570914938</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03252328118382846</v>
+        <v>0.03314685898884009</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2483965713.756039</v>
+        <v>3971061352.937882</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1230464192696608</v>
+        <v>0.1518121748845993</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0273059136210567</v>
+        <v>0.03387823661523248</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1252181609.293557</v>
+        <v>928260517.7775736</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1765295673214849</v>
+        <v>0.1754114732667732</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02147018279692662</v>
+        <v>0.01957427729617453</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1744667097.625707</v>
+        <v>2769595807.18448</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1488106121726509</v>
+        <v>0.1194251552140658</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02594687637542166</v>
+        <v>0.0251716969068373</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2117410718.824811</v>
+        <v>2309521925.613661</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06459554349431233</v>
+        <v>0.07475143354349195</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02923477969276932</v>
+        <v>0.03450677811118692</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,22 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3960206293.583311</v>
+        <v>3450713001.151331</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1017042043801243</v>
+        <v>0.09805623261373368</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03841662773393609</v>
+        <v>0.04462605251007291</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1068,22 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1225109260.887925</v>
+        <v>1524751041.891091</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1345285658694197</v>
+        <v>0.1426748746380054</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03737291744000451</v>
+        <v>0.05001926994961484</v>
       </c>
       <c r="H23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3906080748.483605</v>
+        <v>3654130274.864342</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1406011641577502</v>
+        <v>0.09729779735111881</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02573132941556682</v>
+        <v>0.03494449738253739</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1406745704.593937</v>
+        <v>1069168190.827956</v>
       </c>
       <c r="F25" t="n">
-        <v>0.10467964891986</v>
+        <v>0.1016565091133731</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02522967816696062</v>
+        <v>0.02599658936326902</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1368784021.879442</v>
+        <v>1047323195.224459</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09341371661824584</v>
+        <v>0.08501547763978548</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02768942978145409</v>
+        <v>0.02522986138503717</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3034047002.646945</v>
+        <v>3249572575.961432</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1443258817137487</v>
+        <v>0.145864516922067</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02116687594559619</v>
+        <v>0.0242745907753829</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3403773067.856841</v>
+        <v>2468092103.86798</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1272205936295024</v>
+        <v>0.1099768438492741</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03819034983861169</v>
+        <v>0.03806406470367091</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1242,16 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5435678376.965155</v>
+        <v>5650769945.717525</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1223954664664238</v>
+        <v>0.1193769966306031</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03524231554309388</v>
+        <v>0.03403916990603882</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1596299022.893495</v>
+        <v>2411090406.632157</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1141219263782371</v>
+        <v>0.1117374577613331</v>
       </c>
       <c r="G30" t="n">
-        <v>0.04009550036694471</v>
+        <v>0.02849045963731105</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1438285889.706614</v>
+        <v>1205764389.704098</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08024624795034323</v>
+        <v>0.06829970369898666</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0476056480102638</v>
+        <v>0.03670125319816293</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1476291580.064656</v>
+        <v>1617610025.530307</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1107038942141165</v>
+        <v>0.07729654031166312</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02596253580687734</v>
+        <v>0.03331481493539342</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2283562030.741765</v>
+        <v>2598413525.632761</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1395363383129849</v>
+        <v>0.1572218647942487</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0496986799505268</v>
+        <v>0.05670298390187316</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,22 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1179953959.786622</v>
+        <v>1418113927.983622</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09907222785790201</v>
+        <v>0.09050614165133337</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01809124743205962</v>
+        <v>0.02457645868753011</v>
       </c>
       <c r="H34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1410,13 +1410,13 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>884406618.0847979</v>
+        <v>1249015204.870146</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0978624730020356</v>
+        <v>0.08415895166780001</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04309844156522808</v>
+        <v>0.0295097678615723</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2356953732.677356</v>
+        <v>3159484594.939056</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1660785811227582</v>
+        <v>0.1350039458287059</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02165431476175132</v>
+        <v>0.02734873595160629</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1466,16 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1841050147.165306</v>
+        <v>2770742654.479379</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09660067849540602</v>
+        <v>0.09720253099759921</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02742429367038161</v>
+        <v>0.04232064967322772</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1477462044.076359</v>
+        <v>1970418981.525463</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1084797880095222</v>
+        <v>0.1089925398495837</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02854702558305245</v>
+        <v>0.03618921625629879</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1522,16 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1717727411.972202</v>
+        <v>1611538758.353114</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1235710262804822</v>
+        <v>0.1274227079937379</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02674020178473659</v>
+        <v>0.02369894975199332</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1557420270.957257</v>
+        <v>1563886568.789513</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1497656691457457</v>
+        <v>0.1017705858967249</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03863886715135575</v>
+        <v>0.03639851546976339</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,22 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2412508499.985187</v>
+        <v>1911900108.962676</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1601363690621673</v>
+        <v>0.1322829530731471</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03915950223912112</v>
+        <v>0.03232075837526569</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2644984896.733592</v>
+        <v>3660921868.979829</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1190872749477962</v>
+        <v>0.1047509459603207</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0449501755110417</v>
+        <v>0.04571479466717651</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2472464915.612736</v>
+        <v>3068250225.653135</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1392035196546628</v>
+        <v>0.1752811354463057</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02102774049559754</v>
+        <v>0.02592048311479575</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2052128198.519785</v>
+        <v>1682454846.936223</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08331440664552714</v>
+        <v>0.1027238050540932</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0344355658839041</v>
+        <v>0.0338004954078581</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1597635525.050951</v>
+        <v>2489829143.459226</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1601992135677111</v>
+        <v>0.1615424778126622</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03779150864753324</v>
+        <v>0.05241812369895173</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1718,16 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5134778478.129845</v>
+        <v>5329952580.487888</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1378356862334205</v>
+        <v>0.1321190564920958</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0585252063310342</v>
+        <v>0.03768790114254773</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,19 +1740,19 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4724113477.031404</v>
+        <v>4173262656.741865</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1488991555560314</v>
+        <v>0.1282879139934156</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04619499761307055</v>
+        <v>0.05830378218082505</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
@@ -1774,13 +1774,13 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3800771367.078966</v>
+        <v>2968636595.841081</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09950464762664048</v>
+        <v>0.09284717465068529</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03271170366900636</v>
+        <v>0.03120588498812228</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1802,13 +1802,13 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1829101730.56908</v>
+        <v>1703063872.247645</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1403671077512452</v>
+        <v>0.1289481703014861</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03191130872832698</v>
+        <v>0.03887207212814647</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,22 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3782952928.371516</v>
+        <v>2715947383.473452</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1161680165575912</v>
+        <v>0.1750248877065552</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03697674718031939</v>
+        <v>0.04120711043525602</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1858,13 +1858,13 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1513862024.884891</v>
+        <v>1060491907.721106</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1211752928327317</v>
+        <v>0.1429675018199511</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05411885245634964</v>
+        <v>0.04806335139116921</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4562428189.422611</v>
+        <v>4453371512.936668</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1352981633378336</v>
+        <v>0.1331556006409289</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05067207281453746</v>
+        <v>0.05283862657857917</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3246973621.719514</v>
+        <v>2798790276.272022</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1839626677736818</v>
+        <v>0.1607107959565405</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03165820016592816</v>
+        <v>0.03133019140315971</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4062124886.043468</v>
+        <v>4658714682.08089</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1385371920327377</v>
+        <v>0.1472164213926979</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05076438375056026</v>
+        <v>0.04697456271292255</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4793908386.078656</v>
+        <v>4101092443.537367</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1996985139744201</v>
+        <v>0.2065363271247139</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02140503765791559</v>
+        <v>0.02709542064864031</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,13 +1998,13 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1644089997.224564</v>
+        <v>1163042729.593367</v>
       </c>
       <c r="F56" t="n">
-        <v>0.101095767398583</v>
+        <v>0.1339304034155751</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04025059830124957</v>
+        <v>0.05610624355709947</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2026,13 +2026,13 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4183382639.829592</v>
+        <v>3456073039.181112</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1135744511769279</v>
+        <v>0.1486115024703909</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02336380319814285</v>
+        <v>0.02655254186779761</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1205935906.112669</v>
+        <v>1562968504.41986</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1432472273324683</v>
+        <v>0.1392271950095125</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03673200928958673</v>
+        <v>0.03979918699481629</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5387106165.489634</v>
+        <v>3424166172.527971</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09670139056482205</v>
+        <v>0.08571326540599608</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03883628994115855</v>
+        <v>0.03977792363503655</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2873836004.880235</v>
+        <v>3229027519.513371</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1375601412069045</v>
+        <v>0.1744634055570691</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02845512793669576</v>
+        <v>0.02728220844435824</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,22 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2830002317.303252</v>
+        <v>2435347664.121624</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1577142558958398</v>
+        <v>0.1487364272454896</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0324187683487703</v>
+        <v>0.02543392521990461</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2166,13 +2166,13 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2122947753.109022</v>
+        <v>1560682454.445765</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1667736614495194</v>
+        <v>0.1587165432776827</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04596246103061458</v>
+        <v>0.03309203791653172</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4607378042.165717</v>
+        <v>4896460122.441699</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06566665239709182</v>
+        <v>0.102626178434786</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03319960123789156</v>
+        <v>0.04259924698991366</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2222,13 +2222,13 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5161396996.392191</v>
+        <v>3707973893.660542</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1688686395637624</v>
+        <v>0.1236608526460436</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02401442187693007</v>
+        <v>0.03096239547913348</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5552926280.8023</v>
+        <v>4633934904.61908</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1413790101036708</v>
+        <v>0.1357709437501455</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0272207559627535</v>
+        <v>0.02338562027698983</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3700381137.550354</v>
+        <v>5170920699.530593</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1341728022470431</v>
+        <v>0.1197430441744474</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04863777095050487</v>
+        <v>0.04551652624437059</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3352196693.621368</v>
+        <v>3423473640.156385</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09075968540129296</v>
+        <v>0.06505969508324444</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03918482126311659</v>
+        <v>0.04879131814998015</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2334,16 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4316261094.22179</v>
+        <v>4286428559.158957</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1127071695573267</v>
+        <v>0.1276880871984959</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03986701106297939</v>
+        <v>0.0392609832205875</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2355072351.654563</v>
+        <v>1660918725.658051</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1475852664599054</v>
+        <v>0.111971994336075</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05128899808564098</v>
+        <v>0.05112981679402492</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,22 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2860481439.733682</v>
+        <v>2522742240.351382</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07272749677081976</v>
+        <v>0.08484714408312069</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0332288938274801</v>
+        <v>0.03787510758782523</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3593548328.694216</v>
+        <v>3759779303.176125</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1349868490444733</v>
+        <v>0.1739273467871451</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02666561464951803</v>
+        <v>0.02810879507940545</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,13 +2446,13 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1852075066.838589</v>
+        <v>2006481522.817473</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09866121507460476</v>
+        <v>0.0867762355777041</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03508263424790946</v>
+        <v>0.03313157007616396</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,22 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2615024797.634717</v>
+        <v>2406217970.005097</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1078713509027666</v>
+        <v>0.0957997833244662</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05112965212719735</v>
+        <v>0.03642729615645986</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3754406472.017629</v>
+        <v>2896849861.008445</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1799996339849168</v>
+        <v>0.1703939633420083</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0353341823205417</v>
+        <v>0.02712572426159275</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2262815039.82929</v>
+        <v>2388124466.023654</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1293071117151177</v>
+        <v>0.1171002674020637</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02587357789756922</v>
+        <v>0.03645105422380791</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,19 +2552,19 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4095479819.178373</v>
+        <v>4117834747.435432</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1029502466830226</v>
+        <v>0.100200537458786</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02248523096030555</v>
+        <v>0.02943229817951775</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1598109920.881364</v>
+        <v>1852711457.00106</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1630745451168781</v>
+        <v>0.1573170915331455</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02280165136559898</v>
+        <v>0.03175382528822571</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3796772549.121473</v>
+        <v>3170685155.212796</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1206060671790493</v>
+        <v>0.1310880458421299</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03710186493380455</v>
+        <v>0.05134724240449864</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1545875157.107915</v>
+        <v>1831425526.134605</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1178046539065558</v>
+        <v>0.1283268736920531</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02830593767072537</v>
+        <v>0.02822674526668847</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,19 +2664,19 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4005288210.261663</v>
+        <v>5563793413.230281</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1052495024299129</v>
+        <v>0.0888451066820725</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03780995436140041</v>
+        <v>0.03832048861424415</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4962265484.569162</v>
+        <v>3242604420.053858</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1065682020493122</v>
+        <v>0.1315532735030192</v>
       </c>
       <c r="G81" t="n">
-        <v>0.031364968201699</v>
+        <v>0.03273221603599234</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3987502605.596235</v>
+        <v>4545681737.470748</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1665819678415394</v>
+        <v>0.2138941226905158</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02333484115653034</v>
+        <v>0.02901786266499993</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1524719053.638729</v>
+        <v>1804629705.318609</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1260987929956932</v>
+        <v>0.1254573633811912</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04393719741024645</v>
+        <v>0.03868842689463464</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2782,16 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2171839524.000165</v>
+        <v>2016441633.254022</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09689529878095114</v>
+        <v>0.108650986842197</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04359001545749371</v>
+        <v>0.0322019639558103</v>
       </c>
       <c r="H84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2804,22 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2863312216.498371</v>
+        <v>2523743059.256319</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1765020717873602</v>
+        <v>0.1448210867831767</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04687066385918751</v>
+        <v>0.05198539179395364</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2838,13 +2838,13 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2573009784.868105</v>
+        <v>2286633713.452202</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1185090113245108</v>
+        <v>0.1618155516785428</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02561053798584368</v>
+        <v>0.02638888392628554</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,22 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1420464384.428483</v>
+        <v>1355981028.008803</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1704811374011902</v>
+        <v>0.1591887598869303</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03371095379604343</v>
+        <v>0.02818546703502762</v>
       </c>
       <c r="H87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2769779835.89427</v>
+        <v>3409383005.958239</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1634018280904357</v>
+        <v>0.1319140461134455</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03883235352434362</v>
+        <v>0.03238175164083471</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2401173059.740875</v>
+        <v>3267781699.009181</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1087310450115453</v>
+        <v>0.1601347860892425</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0295274756152141</v>
+        <v>0.03096165146806799</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1679669748.144504</v>
+        <v>1879402270.434848</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09027490545554609</v>
+        <v>0.09595588097675113</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05134786398850905</v>
+        <v>0.05493196729742119</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2004520670.566733</v>
+        <v>1713899844.48752</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1206715347214336</v>
+        <v>0.1307607426115989</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04950828675836987</v>
+        <v>0.04170081121684927</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2003252269.530221</v>
+        <v>1928347707.378287</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07415077999135809</v>
+        <v>0.09662604276313734</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04042555916937251</v>
+        <v>0.03166321320078325</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3317658507.470642</v>
+        <v>3799358401.918383</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1196820324605374</v>
+        <v>0.1307603880230676</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04209566349468142</v>
+        <v>0.04442266012037023</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2316775452.915912</v>
+        <v>1779723309.616044</v>
       </c>
       <c r="F94" t="n">
-        <v>0.139939384729123</v>
+        <v>0.125374781527531</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04196014447019884</v>
+        <v>0.04315312625742705</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>1998207658.176056</v>
+        <v>2840718677.669465</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1181363725412888</v>
+        <v>0.1271555166254438</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03486228645807581</v>
+        <v>0.03460366867802564</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2101414390.311036</v>
+        <v>2265088279.461825</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1171579012949137</v>
+        <v>0.1120959574432552</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03057059876236625</v>
+        <v>0.04330469711414399</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5262470790.308475</v>
+        <v>3340235294.981938</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1077706325977497</v>
+        <v>0.1574406280641286</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02576216127740565</v>
+        <v>0.02780230694179944</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3174,13 +3174,13 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2433525049.897493</v>
+        <v>3550557995.420065</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09492396376141658</v>
+        <v>0.08727044947214448</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02575955888662663</v>
+        <v>0.0225174664890581</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,22 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2333181718.573989</v>
+        <v>3224896112.057057</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1149568826671847</v>
+        <v>0.09198755289968817</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03409668177573105</v>
+        <v>0.03126268361947541</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>2973423369.014691</v>
+        <v>3287845587.817246</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1174991276243205</v>
+        <v>0.1792489625757487</v>
       </c>
       <c r="G100" t="n">
-        <v>0.026508214329496</v>
+        <v>0.02735736108633234</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2225926296.669415</v>
+        <v>3243088605.037261</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1701424818555174</v>
+        <v>0.1342111452542233</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04504134090191533</v>
+        <v>0.05677589966465304</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_402.xlsx
+++ b/output/fit_clients/fit_round_402.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2399834737.824742</v>
+        <v>1866096523.874971</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0943606785390303</v>
+        <v>0.07683206869847073</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02839473555825463</v>
+        <v>0.02842243741242107</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2239336215.178064</v>
+        <v>1824667120.313811</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1523984878250371</v>
+        <v>0.1320269362604778</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0310151713986833</v>
+        <v>0.03692938186844634</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3575617078.376878</v>
+        <v>4897654504.274662</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1207780443390029</v>
+        <v>0.1656284153982127</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02834677503609338</v>
+        <v>0.03267675876661947</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>204</v>
+      </c>
+      <c r="J4" t="n">
+        <v>402</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,23 +600,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2858520020.520243</v>
+        <v>3279649779.609588</v>
       </c>
       <c r="F5" t="n">
-        <v>0.10948154018761</v>
+        <v>0.09828579237127844</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03482269882041673</v>
+        <v>0.04293732447764816</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>164</v>
+      </c>
+      <c r="J5" t="n">
+        <v>399</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,17 +641,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2554138146.504291</v>
+        <v>2761240781.992613</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1241440570236233</v>
+        <v>0.1353473491755168</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03782983166385748</v>
+        <v>0.04529023995734154</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +676,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2005587336.927674</v>
+        <v>2354416344.823569</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06368786885151645</v>
+        <v>0.07328368683373819</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0384871340383436</v>
+        <v>0.03369313557366514</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +705,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3106880734.137624</v>
+        <v>2719959727.987245</v>
       </c>
       <c r="F8" t="n">
-        <v>0.199184981517724</v>
+        <v>0.1942985980148975</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03325191717211266</v>
+        <v>0.03143682270729081</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>109</v>
+      </c>
+      <c r="J8" t="n">
+        <v>398</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +740,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1564146969.488099</v>
+        <v>1646957137.413315</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1489714884456601</v>
+        <v>0.1849719820464365</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03499582357710823</v>
+        <v>0.02429539029891029</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +775,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5918924517.995546</v>
+        <v>5691445374.823395</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1751498480966613</v>
+        <v>0.1554464748316651</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04615920746028772</v>
+        <v>0.04145727524280127</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>325</v>
+      </c>
+      <c r="J10" t="n">
+        <v>401</v>
+      </c>
+      <c r="K10" t="n">
+        <v>47.13916673746771</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +812,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3011381530.079731</v>
+        <v>3120558357.938659</v>
       </c>
       <c r="F11" t="n">
-        <v>0.175650656179097</v>
+        <v>0.180699371031682</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04262795339262802</v>
+        <v>0.04237422568489584</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>169</v>
+      </c>
+      <c r="J11" t="n">
+        <v>400</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +847,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2321382184.273174</v>
+        <v>3245323235.604711</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1653394203508363</v>
+        <v>0.1333497514749664</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04191326400734357</v>
+        <v>0.05216173418443082</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +882,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3391129330.170617</v>
+        <v>3779063785.485095</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1009505904484027</v>
+        <v>0.08781620558553244</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02831543689989438</v>
+        <v>0.02697259568096769</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>210</v>
+      </c>
+      <c r="J13" t="n">
+        <v>401</v>
+      </c>
+      <c r="K13" t="n">
+        <v>46.99685240675268</v>
       </c>
     </row>
     <row r="14">
@@ -822,16 +925,25 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3111619873.068214</v>
+        <v>2723266794.840867</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1666226736699907</v>
+        <v>0.1227871670814279</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0385466880291488</v>
+        <v>0.04233377723618611</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>82</v>
+      </c>
+      <c r="J14" t="n">
+        <v>401</v>
+      </c>
+      <c r="K14" t="n">
+        <v>41.399063483715</v>
       </c>
     </row>
     <row r="15">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1716182028.121221</v>
+        <v>1495281443.70385</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06650351503822557</v>
+        <v>0.1073441957755163</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03192023263255932</v>
+        <v>0.04185005198293942</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1766781459.33567</v>
+        <v>2586026149.707417</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1090567401003098</v>
+        <v>0.1047106017008552</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05185661590069465</v>
+        <v>0.0456151622297306</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1026,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3367867951.408164</v>
+        <v>3250406773.775514</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1168254570914938</v>
+        <v>0.1131153086013752</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03314685898884009</v>
+        <v>0.0336692485196343</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
       </c>
+      <c r="I17" t="n">
+        <v>194</v>
+      </c>
+      <c r="J17" t="n">
+        <v>400</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,22 +1061,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3971061352.937882</v>
+        <v>3629599843.806491</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1518121748845993</v>
+        <v>0.171978711107276</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03387823661523248</v>
+        <v>0.02821101375905828</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>99</v>
+      </c>
+      <c r="J18" t="n">
+        <v>402</v>
+      </c>
+      <c r="K18" t="n">
+        <v>66.05749936705011</v>
       </c>
     </row>
     <row r="19">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>928260517.7775736</v>
+        <v>1296694516.654306</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1754114732667732</v>
+        <v>0.1837130566710388</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01957427729617453</v>
+        <v>0.02054572101715389</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1139,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2769595807.18448</v>
+        <v>1858786805.619057</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1194251552140658</v>
+        <v>0.1548715704784552</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0251716969068373</v>
+        <v>0.03020868553202207</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1168,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2309521925.613661</v>
+        <v>2680290906.887668</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07475143354349195</v>
+        <v>0.09207025995399851</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03450677811118692</v>
+        <v>0.03956562282345777</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1203,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3450713001.151331</v>
+        <v>3946486974.603029</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09805623261373368</v>
+        <v>0.1342655038728291</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04462605251007291</v>
+        <v>0.04846382597134655</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>111</v>
+      </c>
+      <c r="J22" t="n">
+        <v>402</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1524751041.891091</v>
+        <v>1218122054.563538</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1426748746380054</v>
+        <v>0.143030408001956</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05001926994961484</v>
+        <v>0.04735940187678532</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1273,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3654130274.864342</v>
+        <v>3346038463.933624</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09729779735111881</v>
+        <v>0.1147641960438409</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03494449738253739</v>
+        <v>0.02596613859186168</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>126</v>
+      </c>
+      <c r="J24" t="n">
+        <v>400</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1308,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1069168190.827956</v>
+        <v>1349807477.86076</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1016565091133731</v>
+        <v>0.1160071610302665</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02599658936326902</v>
+        <v>0.02575547640317222</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1343,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1047323195.224459</v>
+        <v>1068890581.339067</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08501547763978548</v>
+        <v>0.08574127584019021</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02522986138503717</v>
+        <v>0.03615388465380817</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1378,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3249572575.961432</v>
+        <v>3428766894.844571</v>
       </c>
       <c r="F27" t="n">
-        <v>0.145864516922067</v>
+        <v>0.1017835383594408</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0242745907753829</v>
+        <v>0.01668227550317635</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>168</v>
+      </c>
+      <c r="J27" t="n">
+        <v>402</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1413,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2468092103.86798</v>
+        <v>3892555932.007374</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1099768438492741</v>
+        <v>0.1373090745869392</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03806406470367091</v>
+        <v>0.04543037040445742</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>97</v>
+      </c>
+      <c r="J28" t="n">
+        <v>402</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1242,17 +1454,24 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5650769945.717525</v>
+        <v>4368923207.236598</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1193769966306031</v>
+        <v>0.1126741446427343</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03403916990603882</v>
+        <v>0.03397219768452939</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>340</v>
+      </c>
+      <c r="J29" t="n">
+        <v>402</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1270,17 +1489,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2411090406.632157</v>
+        <v>2162483830.721161</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1117374577613331</v>
+        <v>0.1239632039433027</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02849045963731105</v>
+        <v>0.0349440521144624</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1524,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1205764389.704098</v>
+        <v>1360484795.036299</v>
       </c>
       <c r="F31" t="n">
-        <v>0.06829970369898666</v>
+        <v>0.06783749498424622</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03670125319816293</v>
+        <v>0.04151251477357208</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1553,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1617610025.530307</v>
+        <v>1383253784.813779</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07729654031166312</v>
+        <v>0.07883581669538166</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03331481493539342</v>
+        <v>0.03454819615085937</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1588,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2598413525.632761</v>
+        <v>2925972244.790663</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1572218647942487</v>
+        <v>0.1388166100813505</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05670298390187316</v>
+        <v>0.0437464861381396</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1623,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1418113927.983622</v>
+        <v>978471475.4264284</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09050614165133337</v>
+        <v>0.1153593143679608</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02457645868753011</v>
+        <v>0.02149897871283655</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1658,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1249015204.870146</v>
+        <v>1114424520.641494</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08415895166780001</v>
+        <v>0.111958953353701</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0295097678615723</v>
+        <v>0.03490382216818099</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1699,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3159484594.939056</v>
+        <v>2086333870.675146</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1350039458287059</v>
+        <v>0.1141203967541961</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02734873595160629</v>
+        <v>0.01762539978012579</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1728,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2770742654.479379</v>
+        <v>2334908635.184133</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09720253099759921</v>
+        <v>0.09325598198165502</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04232064967322772</v>
+        <v>0.03485112585845288</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1763,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1970418981.525463</v>
+        <v>1737773817.827906</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1089925398495837</v>
+        <v>0.121154837556656</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03618921625629879</v>
+        <v>0.03932430099887144</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1798,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1611538758.353114</v>
+        <v>1979201946.525169</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1274227079937379</v>
+        <v>0.1222442294215837</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02369894975199332</v>
+        <v>0.02202993448315849</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1839,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1563886568.789513</v>
+        <v>1312579664.233573</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1017705858967249</v>
+        <v>0.1564951186243254</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03639851546976339</v>
+        <v>0.05424428018601241</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1868,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1911900108.962676</v>
+        <v>2317537488.37804</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1322829530731471</v>
+        <v>0.1414088906278762</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03232075837526569</v>
+        <v>0.0453912309672059</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1903,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3660921868.979829</v>
+        <v>2646077652.647403</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1047509459603207</v>
+        <v>0.1272920845488731</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04571479466717651</v>
+        <v>0.04509092146768633</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>173</v>
+      </c>
+      <c r="J42" t="n">
+        <v>399</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1938,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>3068250225.653135</v>
+        <v>2391816441.359588</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1752811354463057</v>
+        <v>0.164080779317016</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02592048311479575</v>
+        <v>0.02451824536619594</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1973,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1682454846.936223</v>
+        <v>2235125618.95142</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1027238050540932</v>
+        <v>0.1024058646190548</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0338004954078581</v>
+        <v>0.02266735227202389</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2008,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2489829143.459226</v>
+        <v>1587433184.045861</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1615424778126622</v>
+        <v>0.1666506726760132</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05241812369895173</v>
+        <v>0.03793786154677386</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2043,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5329952580.487888</v>
+        <v>3690316586.934996</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1321190564920958</v>
+        <v>0.1610266326981349</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03768790114254773</v>
+        <v>0.04541875288355122</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>241</v>
+      </c>
+      <c r="J46" t="n">
+        <v>402</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,23 +2078,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4173262656.741865</v>
+        <v>4985216264.62083</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1282879139934156</v>
+        <v>0.1619883930778138</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05830378218082505</v>
+        <v>0.04769071292686465</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>180</v>
+      </c>
+      <c r="J47" t="n">
+        <v>402</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,22 +2113,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2968636595.841081</v>
+        <v>3437060785.262033</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09284717465068529</v>
+        <v>0.09635016093139377</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03120588498812228</v>
+        <v>0.02672871927925519</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>207</v>
+      </c>
+      <c r="J48" t="n">
+        <v>401</v>
+      </c>
+      <c r="K48" t="n">
+        <v>42.98736906343631</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2150,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1703063872.247645</v>
+        <v>1372005931.148091</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1289481703014861</v>
+        <v>0.1476308449904717</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03887207212814647</v>
+        <v>0.03604461872287166</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,16 +2191,25 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2715947383.473452</v>
+        <v>3355491425.090725</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1750248877065552</v>
+        <v>0.1287891339130005</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04120711043525602</v>
+        <v>0.0533115381283705</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>137</v>
+      </c>
+      <c r="J50" t="n">
+        <v>402</v>
+      </c>
+      <c r="K50" t="n">
+        <v>48.20920288912961</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2222,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1060491907.721106</v>
+        <v>1248932064.482687</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1429675018199511</v>
+        <v>0.1244292689219387</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04806335139116921</v>
+        <v>0.04319236161691144</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,17 +2263,24 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4453371512.936668</v>
+        <v>4343423289.741653</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1331556006409289</v>
+        <v>0.1184160888970594</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05283862657857917</v>
+        <v>0.04844562868959219</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>233</v>
+      </c>
+      <c r="J52" t="n">
+        <v>402</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,22 +2292,31 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2798790276.272022</v>
+        <v>2552266691.395964</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1607107959565405</v>
+        <v>0.146037554978451</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03133019140315971</v>
+        <v>0.02475891483616812</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>55</v>
+      </c>
+      <c r="J53" t="n">
+        <v>401</v>
+      </c>
+      <c r="K53" t="n">
+        <v>36.63135618146568</v>
       </c>
     </row>
     <row r="54">
@@ -1936,23 +2329,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4658714682.08089</v>
+        <v>3363140718.768166</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1472164213926979</v>
+        <v>0.1537359530583605</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04697456271292255</v>
+        <v>0.03348991717681359</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>214</v>
+      </c>
+      <c r="J54" t="n">
+        <v>402</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1970,16 +2370,25 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4101092443.537367</v>
+        <v>4718798724.011947</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2065363271247139</v>
+        <v>0.1959372581154279</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02709542064864031</v>
+        <v>0.02482279528323911</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>194</v>
+      </c>
+      <c r="J55" t="n">
+        <v>402</v>
+      </c>
+      <c r="K55" t="n">
+        <v>53.61080196580232</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2401,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1163042729.593367</v>
+        <v>1402898388.585913</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1339304034155751</v>
+        <v>0.1491172066023996</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05610624355709947</v>
+        <v>0.05447082464117264</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2436,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3456073039.181112</v>
+        <v>3228481509.121278</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1486115024703909</v>
+        <v>0.1492638244186486</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02655254186779761</v>
+        <v>0.02295452548014281</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>172</v>
+      </c>
+      <c r="J57" t="n">
+        <v>401</v>
+      </c>
+      <c r="K57" t="n">
+        <v>38.00030621069276</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2473,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1562968504.41986</v>
+        <v>1593173182.043696</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1392271950095125</v>
+        <v>0.1509124251373821</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03979918699481629</v>
+        <v>0.0287646740429944</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2508,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3424166172.527971</v>
+        <v>5301579772.457652</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08571326540599608</v>
+        <v>0.1147547113364197</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03977792363503655</v>
+        <v>0.0322313956901106</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>197</v>
+      </c>
+      <c r="J59" t="n">
+        <v>401</v>
+      </c>
+      <c r="K59" t="n">
+        <v>44.52044812126633</v>
       </c>
     </row>
     <row r="60">
@@ -2110,17 +2551,24 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3229027519.513371</v>
+        <v>3375404481.202011</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1744634055570691</v>
+        <v>0.1860941968577627</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02728220844435824</v>
+        <v>0.02588019926731378</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>73</v>
+      </c>
+      <c r="J60" t="n">
+        <v>402</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2138,17 +2586,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2435347664.121624</v>
+        <v>2058104271.257186</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1487364272454896</v>
+        <v>0.1118606330733208</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02543392521990461</v>
+        <v>0.02854643552431725</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>13</v>
+      </c>
+      <c r="J61" t="n">
+        <v>384</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2615,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1560682454.445765</v>
+        <v>1602595679.274094</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1587165432776827</v>
+        <v>0.149840157205878</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03309203791653172</v>
+        <v>0.03966594148838537</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2650,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4896460122.441699</v>
+        <v>4253977001.863434</v>
       </c>
       <c r="F63" t="n">
-        <v>0.102626178434786</v>
+        <v>0.1010237900018706</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04259924698991366</v>
+        <v>0.03453296937094111</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>200</v>
+      </c>
+      <c r="J63" t="n">
+        <v>401</v>
+      </c>
+      <c r="K63" t="n">
+        <v>47.80444103439667</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2693,25 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3707973893.660542</v>
+        <v>3997709868.435042</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1236608526460436</v>
+        <v>0.136923768877745</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03096239547913348</v>
+        <v>0.02982473805607743</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>201</v>
+      </c>
+      <c r="J64" t="n">
+        <v>401</v>
+      </c>
+      <c r="K64" t="n">
+        <v>43.83610486300195</v>
       </c>
     </row>
     <row r="65">
@@ -2244,23 +2724,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4633934904.61908</v>
+        <v>4777288442.66564</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1357709437501455</v>
+        <v>0.1644819702427723</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02338562027698983</v>
+        <v>0.0319904048355633</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>297</v>
+      </c>
+      <c r="J65" t="n">
+        <v>402</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2278,16 +2765,25 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5170920699.530593</v>
+        <v>3495838013.859954</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1197430441744474</v>
+        <v>0.1345376039574083</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04551652624437059</v>
+        <v>0.03432822747880684</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>199</v>
+      </c>
+      <c r="J66" t="n">
+        <v>401</v>
+      </c>
+      <c r="K66" t="n">
+        <v>42.25687498962935</v>
       </c>
     </row>
     <row r="67">
@@ -2306,17 +2802,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3423473640.156385</v>
+        <v>2581732652.506502</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06505969508324444</v>
+        <v>0.08855592028258516</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04879131814998015</v>
+        <v>0.04345031965975222</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>11</v>
+      </c>
+      <c r="J67" t="n">
+        <v>389</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2831,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4286428559.158957</v>
+        <v>3821390069.083739</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1276880871984959</v>
+        <v>0.1267649608299263</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0392609832205875</v>
+        <v>0.03366959742557542</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>219</v>
+      </c>
+      <c r="J68" t="n">
+        <v>401</v>
+      </c>
+      <c r="K68" t="n">
+        <v>46.21365303343358</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2868,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1660918725.658051</v>
+        <v>1951745843.317406</v>
       </c>
       <c r="F69" t="n">
-        <v>0.111971994336075</v>
+        <v>0.1798700787074935</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05112981679402492</v>
+        <v>0.03833970736706878</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2903,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2522742240.351382</v>
+        <v>2304140381.056042</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08484714408312069</v>
+        <v>0.1032990294639815</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03787510758782523</v>
+        <v>0.03096915872904876</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>54</v>
+      </c>
+      <c r="J70" t="n">
+        <v>389</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2938,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3759779303.176125</v>
+        <v>3644426335.213634</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1739273467871451</v>
+        <v>0.1125504086452009</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02810879507940545</v>
+        <v>0.02729897291786991</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>285</v>
+      </c>
+      <c r="J71" t="n">
+        <v>401</v>
+      </c>
+      <c r="K71" t="n">
+        <v>47.90428637237286</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2975,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2006481522.817473</v>
+        <v>1973789694.417674</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0867762355777041</v>
+        <v>0.07914254564575825</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03313157007616396</v>
+        <v>0.04822827768318935</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3010,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2406217970.005097</v>
+        <v>2462511893.363113</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0957997833244662</v>
+        <v>0.09997633269418861</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03642729615645986</v>
+        <v>0.04984167212787204</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>29</v>
+      </c>
+      <c r="J73" t="n">
+        <v>382</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3045,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2896849861.008445</v>
+        <v>3003343273.51942</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1703939633420083</v>
+        <v>0.1515838326979956</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02712572426159275</v>
+        <v>0.02242020332688903</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>113</v>
+      </c>
+      <c r="J74" t="n">
+        <v>393</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3080,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2388124466.023654</v>
+        <v>2352024807.570593</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1171002674020637</v>
+        <v>0.1453148508178027</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03645105422380791</v>
+        <v>0.03380260158077554</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3115,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4117834747.435432</v>
+        <v>5060209224.457766</v>
       </c>
       <c r="F76" t="n">
-        <v>0.100200537458786</v>
+        <v>0.09826283830421109</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02943229817951775</v>
+        <v>0.03237413863660121</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>190</v>
+      </c>
+      <c r="J76" t="n">
+        <v>402</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2586,17 +3156,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1852711457.00106</v>
+        <v>1988816500.931616</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1573170915331455</v>
+        <v>0.1330550144728691</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03175382528822571</v>
+        <v>0.02360476003021927</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3185,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3170685155.212796</v>
+        <v>3726743760.750183</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1310880458421299</v>
+        <v>0.112555804785494</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05134724240449864</v>
+        <v>0.04004719593765724</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>200</v>
+      </c>
+      <c r="J78" t="n">
+        <v>402</v>
+      </c>
+      <c r="K78" t="n">
+        <v>48.23514546216914</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3222,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1831425526.134605</v>
+        <v>1235011309.876691</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1283268736920531</v>
+        <v>0.1652783285505816</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02822674526668847</v>
+        <v>0.02624070918907759</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3257,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5563793413.230281</v>
+        <v>5318342899.694654</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0888451066820725</v>
+        <v>0.0722187215381076</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03832048861424415</v>
+        <v>0.0347539833722087</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>196</v>
+      </c>
+      <c r="J80" t="n">
+        <v>402</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2698,16 +3298,25 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3242604420.053858</v>
+        <v>4941069070.586156</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1315532735030192</v>
+        <v>0.1039604132569677</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03273221603599234</v>
+        <v>0.01991325025643994</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>187</v>
+      </c>
+      <c r="J81" t="n">
+        <v>401</v>
+      </c>
+      <c r="K81" t="n">
+        <v>45.62381605137356</v>
       </c>
     </row>
     <row r="82">
@@ -2726,17 +3335,24 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4545681737.470748</v>
+        <v>4873760589.449328</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2138941226905158</v>
+        <v>0.1526791282723206</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02901786266499993</v>
+        <v>0.02459324715791908</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>275</v>
+      </c>
+      <c r="J82" t="n">
+        <v>402</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2754,17 +3370,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1804629705.318609</v>
+        <v>1599599956.537038</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1254573633811912</v>
+        <v>0.1038949976580565</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03868842689463464</v>
+        <v>0.03719161146270446</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3405,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2016441633.254022</v>
+        <v>2510088208.530426</v>
       </c>
       <c r="F84" t="n">
-        <v>0.108650986842197</v>
+        <v>0.1165610738978993</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0322019639558103</v>
+        <v>0.04051574675594503</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,22 +3434,31 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2523743059.256319</v>
+        <v>2223668990.607224</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1448210867831767</v>
+        <v>0.1260905267196537</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05198539179395364</v>
+        <v>0.03962015529173948</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>52</v>
+      </c>
+      <c r="J85" t="n">
+        <v>401</v>
+      </c>
+      <c r="K85" t="n">
+        <v>32.67071684473252</v>
       </c>
     </row>
     <row r="86">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2286633713.452202</v>
+        <v>2661355440.024359</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1618155516785428</v>
+        <v>0.1678743349629515</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02638888392628554</v>
+        <v>0.01997875278027012</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1355981028.008803</v>
+        <v>1445854222.790825</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1591887598869303</v>
+        <v>0.1300414967411013</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02818546703502762</v>
+        <v>0.04107696040297747</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3409383005.958239</v>
+        <v>2247202184.061193</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1319140461134455</v>
+        <v>0.1124336600616787</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03238175164083471</v>
+        <v>0.03609412340450072</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>52</v>
+      </c>
+      <c r="J88" t="n">
+        <v>396</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3267781699.009181</v>
+        <v>3359132914.975489</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1601347860892425</v>
+        <v>0.1482578924092104</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03096165146806799</v>
+        <v>0.02697593470158432</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2950,17 +3617,24 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1879402270.434848</v>
+        <v>1576807930.708662</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09595588097675113</v>
+        <v>0.09457152373587717</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05493196729742119</v>
+        <v>0.04539518114621657</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1713899844.48752</v>
+        <v>1477958130.179955</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1307607426115989</v>
+        <v>0.1219912380085131</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04170081121684927</v>
+        <v>0.0585233296247893</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3687,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1928347707.378287</v>
+        <v>2434625160.847058</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09662604276313734</v>
+        <v>0.09140822140891842</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03166321320078325</v>
+        <v>0.03953329971772792</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3716,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3799358401.918383</v>
+        <v>4898538773.103284</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1307603880230676</v>
+        <v>0.1074405603975553</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04442266012037023</v>
+        <v>0.04457403422386681</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>192</v>
+      </c>
+      <c r="J93" t="n">
+        <v>402</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1779723309.616044</v>
+        <v>2260530911.796167</v>
       </c>
       <c r="F94" t="n">
-        <v>0.125374781527531</v>
+        <v>0.1471198514782947</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04315312625742705</v>
+        <v>0.0388058898229023</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2840718677.669465</v>
+        <v>2425390838.117805</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1271555166254438</v>
+        <v>0.1053510424775422</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03460366867802564</v>
+        <v>0.04375795815171669</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3118,17 +3827,24 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2265088279.461825</v>
+        <v>2002166079.350089</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1120959574432552</v>
+        <v>0.09251548019197801</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04330469711414399</v>
+        <v>0.03481906977640198</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3856,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3340235294.981938</v>
+        <v>3236573897.600166</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1574406280641286</v>
+        <v>0.1758497400126509</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02780230694179944</v>
+        <v>0.02385655651509746</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>209</v>
+      </c>
+      <c r="J97" t="n">
+        <v>400</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,22 +3891,31 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3550557995.420065</v>
+        <v>3514723404.874526</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08727044947214448</v>
+        <v>0.09072928379899373</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0225174664890581</v>
+        <v>0.02568070315190386</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>104</v>
+      </c>
+      <c r="J98" t="n">
+        <v>402</v>
+      </c>
+      <c r="K98" t="n">
+        <v>53.947204829844</v>
       </c>
     </row>
     <row r="99">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3224896112.057057</v>
+        <v>3336656034.22353</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09198755289968817</v>
+        <v>0.1356815379860423</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03126268361947541</v>
+        <v>0.02602327227383305</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3287845587.817246</v>
+        <v>3730115502.669393</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1792489625757487</v>
+        <v>0.1466844688823857</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02735736108633234</v>
+        <v>0.0196539722418889</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>187</v>
+      </c>
+      <c r="J100" t="n">
+        <v>401</v>
+      </c>
+      <c r="K100" t="n">
+        <v>46.77926925990945</v>
       </c>
     </row>
     <row r="101">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3243088605.037261</v>
+        <v>2392453093.200004</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1342111452542233</v>
+        <v>0.1532887118409688</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05677589966465304</v>
+        <v>0.0579900148287119</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>38</v>
+      </c>
+      <c r="J101" t="n">
+        <v>400</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
